--- a/biology/Zoologie/Forskalia_edwardsi/Forskalia_edwardsi.xlsx
+++ b/biology/Zoologie/Forskalia_edwardsi/Forskalia_edwardsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forskalia edwardsi (Rudolph Albert von Kölliker, 1853) est un siphonophore de la famille des Forskaliidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Forskalia edwardsi n'est pas un animal à part entière, mais une colonie de centaines de polypes dont chacun occupe une fonction distincte. La structure coloniale est fuselée, évoquant une corde, d'une longueur pouvant atteindre jusqu'à plus de 10 mètres de long. (plus couramment de 1 à 4 mètres).
 La partie supérieure de la colonie est surmontée d'un pneumatophore translucide qui aide la colonie à flotter, et qui peut être de différentes tailles. Suit une série de cloches natatoires, pouvant aller jusqu'à douze, puis, autour du stolon central, des cormidies, noires ou de couleurs rose saumon, possédant plusieurs polypes occupant différentes fonctions comme la reproduction, l'alimentation ou la défense. Chaque cormidie possède un filament de pêche ramifié qui lui sert à capturer les proies qui nourriront la colonie.
